--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523872</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165217</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033993</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314907</v>
+        <v>-89.28600430314903</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882992</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248761</v>
       </c>
       <c r="D3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248761</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950738</v>
+        <v>54.96310908950603</v>
       </c>
       <c r="G3">
-        <v>54.96310908950738</v>
+        <v>54.96310908950603</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020826</v>
+        <v>0.9526279648020792</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025198</v>
+        <v>0.9526279648025215</v>
       </c>
       <c r="Q3">
-        <v>-4.069505093828522E-12</v>
+        <v>-3.254024260705804E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99999999999</v>
+        <v>-179.9999999999907</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753113</v>
+        <v>0.952627964775308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292909</v>
+        <v>0.9526279648292928</v>
       </c>
       <c r="Q4">
-        <v>1.415044165032323E-09</v>
+        <v>1.415858268396637E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985763</v>
+        <v>179.9999999985755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663876</v>
+        <v>0.9526279647663842</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382148</v>
+        <v>0.9526279648382164</v>
       </c>
       <c r="Q5">
-        <v>1.88807568571382E-09</v>
+        <v>1.888890692837082E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981025</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663877</v>
+        <v>0.9526279647663842</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382148</v>
+        <v>0.9526279648382164</v>
       </c>
       <c r="Q6">
-        <v>1.888076414224206E-09</v>
+        <v>1.888889882159644E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981025</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1125,13 @@
         <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.06511527042063</v>
+        <v>1.065115270420631</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604973</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.9252413024969</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,52 +1145,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753561</v>
       </c>
       <c r="D3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753561</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391891</v>
       </c>
       <c r="G3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391891</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573923</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765318</v>
+        <v>0.7109795688765326</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381402</v>
+        <v>0.9171656569381423</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293685</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928742</v>
       </c>
       <c r="S3">
         <v>158.1868465769573</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561353</v>
       </c>
       <c r="O4">
-        <v>0.710979568876039</v>
+        <v>0.7109795688760397</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531275</v>
+        <v>0.9171656569531296</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336738</v>
+        <v>17.92198046336749</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904447</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758745</v>
+        <v>0.7109795688758753</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581252</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351103</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896348</v>
       </c>
       <c r="S5">
         <v>158.1868465770934</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758753</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581254</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351092</v>
+        <v>17.92198046351102</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896348</v>
       </c>
       <c r="S6">
         <v>158.1868465770934</v>
@@ -1492,13 +1492,13 @@
         <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.06511527042063</v>
+        <v>1.065115270420631</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604973</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.9252413024969</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,52 +1512,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753561</v>
       </c>
       <c r="D3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753561</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391891</v>
       </c>
       <c r="G3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391891</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573923</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765318</v>
+        <v>0.7109795688765326</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381402</v>
+        <v>0.9171656569381423</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293685</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928742</v>
       </c>
       <c r="S3">
         <v>158.1868465769573</v>
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561353</v>
       </c>
       <c r="O4">
-        <v>0.710979568876039</v>
+        <v>0.7109795688760397</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531275</v>
+        <v>0.9171656569531296</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336738</v>
+        <v>17.92198046336749</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904447</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758745</v>
+        <v>0.7109795688758753</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581252</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351103</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896348</v>
       </c>
       <c r="S5">
         <v>158.1868465770934</v>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758753</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581254</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351092</v>
+        <v>17.92198046351102</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896348</v>
       </c>
       <c r="S6">
         <v>158.1868465770934</v>
@@ -1856,16 +1856,16 @@
         <v>0.9477232070952271</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739478</v>
+        <v>0.7936674232739446</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888177</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610129</v>
+        <v>24.75158797610118</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623897132</v>
       </c>
       <c r="S2">
         <v>155.5173957043594</v>
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661918</v>
+        <v>4.133684588661979</v>
       </c>
       <c r="D3">
-        <v>4.133684588661918</v>
+        <v>4.133684588661979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017932</v>
+        <v>47.73167820018003</v>
       </c>
       <c r="G3">
-        <v>47.73167820017932</v>
+        <v>47.73167820018003</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841225</v>
+        <v>0.8660254037841273</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841828</v>
+        <v>0.8660254037841778</v>
       </c>
       <c r="Q3">
-        <v>3.079858005462644E-11</v>
+        <v>3.028532179756647E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999607</v>
+        <v>179.9999999999611</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597855</v>
+        <v>0.8660254037597902</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085203</v>
+        <v>0.8660254038085153</v>
       </c>
       <c r="Q4">
-        <v>2.755485287023871E-09</v>
+        <v>2.754983257351474E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.999999997236</v>
+        <v>179.9999999972364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866025403751673</v>
+        <v>0.8660254037516778</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166328</v>
+        <v>0.866025403816628</v>
       </c>
       <c r="Q5">
-        <v>3.663719223451323E-09</v>
+        <v>3.663215048321109E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963282</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.866025403751673</v>
+        <v>0.8660254037516777</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166327</v>
+        <v>0.8660254038166278</v>
       </c>
       <c r="Q6">
-        <v>3.663720171547527E-09</v>
+        <v>3.66321197754216E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963282</v>
       </c>
     </row>
   </sheetData>
@@ -2223,16 +2223,16 @@
         <v>0.9477232070952271</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739478</v>
+        <v>0.7936674232739446</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888177</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610129</v>
+        <v>24.75158797610118</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623897132</v>
       </c>
       <c r="S2">
         <v>155.5173957043594</v>
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661918</v>
+        <v>4.133684588661979</v>
       </c>
       <c r="D3">
-        <v>4.133684588661918</v>
+        <v>4.133684588661979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017932</v>
+        <v>47.73167820018003</v>
       </c>
       <c r="G3">
-        <v>47.73167820017932</v>
+        <v>47.73167820018003</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841225</v>
+        <v>0.8660254037841273</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841828</v>
+        <v>0.8660254037841778</v>
       </c>
       <c r="Q3">
-        <v>3.079858005462644E-11</v>
+        <v>3.028532179756647E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999607</v>
+        <v>179.9999999999611</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597855</v>
+        <v>0.8660254037597902</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085203</v>
+        <v>0.8660254038085153</v>
       </c>
       <c r="Q4">
-        <v>2.755485287023871E-09</v>
+        <v>2.754983257351474E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.999999997236</v>
+        <v>179.9999999972364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866025403751673</v>
+        <v>0.8660254037516778</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166328</v>
+        <v>0.866025403816628</v>
       </c>
       <c r="Q5">
-        <v>3.663719223451323E-09</v>
+        <v>3.663215048321109E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963282</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.866025403751673</v>
+        <v>0.8660254037516777</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166327</v>
+        <v>0.8660254038166278</v>
       </c>
       <c r="Q6">
-        <v>3.663720171547527E-09</v>
+        <v>3.66321197754216E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963282</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618449</v>
       </c>
       <c r="O2">
         <v>0.9175617791399001</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021191</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.43727595412384</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.1280210533502</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2613,52 +2613,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210687</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210687</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.7353452954558</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.7353452954558</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264116</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.63488769518239</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.8307352055776809</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.5701177953651</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.98858157581</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.00569389525124</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946467</v>
+        <v>0.6348876951946474</v>
       </c>
       <c r="P4">
-        <v>0.830735205597955</v>
+        <v>0.8307352055979534</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629435</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.988581572226</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246947</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987323</v>
+        <v>0.634887695198733</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047126</v>
+        <v>0.8307352056047109</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660412</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710313</v>
       </c>
       <c r="S5">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246947</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987331</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047109</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660411</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710313</v>
       </c>
       <c r="S6">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618449</v>
       </c>
       <c r="O2">
         <v>0.9175617791399001</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021191</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.43727595412384</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.1280210533502</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2980,52 +2980,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210687</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210687</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.7353452954558</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.7353452954558</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264116</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.63488769518239</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.8307352055776809</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.5701177953651</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.98858157581</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.00569389525124</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946467</v>
+        <v>0.6348876951946474</v>
       </c>
       <c r="P4">
-        <v>0.830735205597955</v>
+        <v>0.8307352055979534</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629435</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.988581572226</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246947</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987323</v>
+        <v>0.634887695198733</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047126</v>
+        <v>0.8307352056047109</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660412</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710313</v>
       </c>
       <c r="S5">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246947</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987331</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047109</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660411</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710313</v>
       </c>
       <c r="S6">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9665460630090806</v>
+        <v>1.100584731947506</v>
       </c>
       <c r="O2">
-        <v>1.100000023847869</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>0.9557465210035623</v>
+        <v>1.10066062014916</v>
       </c>
       <c r="Q2">
-        <v>35.36614591778203</v>
+        <v>29.97786373358262</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5565078557483</v>
+        <v>150.0152885355002</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486784014146857</v>
+        <v>0.03285934688401693</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>86.44993531864552</v>
+        <v>0.3794270553776493</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.008188471891673E-06</v>
+        <v>6.233869347591487</v>
       </c>
       <c r="I3">
-        <v>0.4682109449152916</v>
+        <v>-1164.242156170674</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178407</v>
+        <v>0.1077319051882908</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694637216</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132417</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642834</v>
+        <v>2.308438694643078</v>
       </c>
       <c r="N3">
-        <v>0.560589504154968</v>
+        <v>1.103186577924571</v>
       </c>
       <c r="O3">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P3">
-        <v>0.5532622975081952</v>
+        <v>1.103384078295398</v>
       </c>
       <c r="Q3">
-        <v>81.01440611845995</v>
+        <v>29.89262750586951</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>99.10560112809871</v>
+        <v>150.0895368626872</v>
       </c>
       <c r="T3">
-        <v>7.486784014146858</v>
+        <v>0.03285934688401692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5605895042022262</v>
+        <v>1.103186577924334</v>
       </c>
       <c r="O4">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P4">
-        <v>0.5532622974726772</v>
+        <v>1.103384078295337</v>
       </c>
       <c r="Q4">
-        <v>81.01440611536486</v>
+        <v>29.89262750586603</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>99.1056011325995</v>
+        <v>150.0895368626748</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5605895042179788</v>
+        <v>1.103186577924255</v>
       </c>
       <c r="O5">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P5">
-        <v>0.5532622974608378</v>
+        <v>1.103384078295316</v>
       </c>
       <c r="Q5">
-        <v>81.0144061143332</v>
+        <v>29.89262750586489</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>99.10560113409974</v>
+        <v>150.0895368626707</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5605895042179788</v>
+        <v>1.103186577924255</v>
       </c>
       <c r="O6">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P6">
-        <v>0.5532622974608378</v>
+        <v>1.103384078295316</v>
       </c>
       <c r="Q6">
-        <v>81.0144061143332</v>
+        <v>29.89262750586488</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>99.10560113409973</v>
+        <v>150.0895368626707</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9665460630090806</v>
+        <v>1.100584731947506</v>
       </c>
       <c r="O2">
-        <v>1.100000023847869</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>0.9557465210035623</v>
+        <v>1.10066062014916</v>
       </c>
       <c r="Q2">
-        <v>35.36614591778203</v>
+        <v>29.97786373358262</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5565078557483</v>
+        <v>150.0152885355002</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486784014146857</v>
+        <v>0.03285934688401693</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>86.44993531864552</v>
+        <v>0.3794270553776493</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.008188471891673E-06</v>
+        <v>6.233869347591487</v>
       </c>
       <c r="I3">
-        <v>0.4682109449152916</v>
+        <v>-1164.242156170674</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178407</v>
+        <v>0.1077319051882908</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694637216</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132417</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642834</v>
+        <v>2.308438694643078</v>
       </c>
       <c r="N3">
-        <v>0.560589504154968</v>
+        <v>1.103186577924571</v>
       </c>
       <c r="O3">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P3">
-        <v>0.5532622975081952</v>
+        <v>1.103384078295398</v>
       </c>
       <c r="Q3">
-        <v>81.01440611845995</v>
+        <v>29.89262750586951</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>99.10560112809871</v>
+        <v>150.0895368626872</v>
       </c>
       <c r="T3">
-        <v>7.486784014146858</v>
+        <v>0.03285934688401692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5605895042022262</v>
+        <v>1.103186577924334</v>
       </c>
       <c r="O4">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P4">
-        <v>0.5532622974726772</v>
+        <v>1.103384078295337</v>
       </c>
       <c r="Q4">
-        <v>81.01440611536486</v>
+        <v>29.89262750586603</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>99.1056011325995</v>
+        <v>150.0895368626748</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5605895042179788</v>
+        <v>1.103186577924255</v>
       </c>
       <c r="O5">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P5">
-        <v>0.5532622974608378</v>
+        <v>1.103384078295316</v>
       </c>
       <c r="Q5">
-        <v>81.0144061143332</v>
+        <v>29.89262750586489</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>99.10560113409974</v>
+        <v>150.0895368626707</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5605895042179788</v>
+        <v>1.103186577924255</v>
       </c>
       <c r="O6">
-        <v>1.100000023849218</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P6">
-        <v>0.5532622974608378</v>
+        <v>1.103384078295316</v>
       </c>
       <c r="Q6">
-        <v>81.0144061143332</v>
+        <v>29.89262750586488</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>99.10560113409973</v>
+        <v>150.0895368626707</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066741299950537</v>
+        <v>1.10058657759969</v>
       </c>
       <c r="O2">
-        <v>1.100000023843602</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.084485836409615</v>
+        <v>1.100673029579467</v>
       </c>
       <c r="Q2">
-        <v>29.95524474567465</v>
+        <v>29.97717304073655</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.456066043891</v>
+        <v>150.0150259947134</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512249406985107</v>
+        <v>0.03328463089789862</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.46195204409407</v>
+        <v>0.3843378121755821</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.008188471891673E-06</v>
+        <v>6.233869347591487</v>
       </c>
       <c r="I3">
-        <v>0.4682109449152916</v>
+        <v>-1164.242156170674</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178407</v>
+        <v>0.1077319051882908</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694637216</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132417</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642834</v>
+        <v>2.308438694643078</v>
       </c>
       <c r="N3">
-        <v>0.9258960224143445</v>
+        <v>1.103200056240783</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.036762639746416</v>
+        <v>1.103450537490505</v>
       </c>
       <c r="Q3">
-        <v>29.15652802099638</v>
+        <v>29.88904128065449</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.2519843803282</v>
+        <v>150.0883382818549</v>
       </c>
       <c r="T3">
-        <v>1.512249406985107</v>
+        <v>0.03328463089789862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9258960224210204</v>
+        <v>1.103200056240542</v>
       </c>
       <c r="O4">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.036762639740436</v>
+        <v>1.10345053749044</v>
       </c>
       <c r="Q4">
-        <v>29.15652802156343</v>
+        <v>29.88904128065114</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.2519843808606</v>
+        <v>150.0883382818424</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9258960224232455</v>
+        <v>1.103200056240462</v>
       </c>
       <c r="O5">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.036762639738443</v>
+        <v>1.103450537490418</v>
       </c>
       <c r="Q5">
-        <v>29.15652802175244</v>
+        <v>29.88904128065003</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.251984381038</v>
+        <v>150.0883382818382</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9258960224232455</v>
+        <v>1.103200056240462</v>
       </c>
       <c r="O6">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.036762639738443</v>
+        <v>1.103450537490418</v>
       </c>
       <c r="Q6">
-        <v>29.15652802175244</v>
+        <v>29.88904128065002</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.251984381038</v>
+        <v>150.0883382818382</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066741299950537</v>
+        <v>1.10058657759969</v>
       </c>
       <c r="O2">
-        <v>1.100000023843602</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.084485836409615</v>
+        <v>1.100673029579467</v>
       </c>
       <c r="Q2">
-        <v>29.95524474567465</v>
+        <v>29.97717304073655</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.456066043891</v>
+        <v>150.0150259947134</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512249406985107</v>
+        <v>0.03328463089789862</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.46195204409407</v>
+        <v>0.3843378121755821</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.008188471891673E-06</v>
+        <v>6.233869347591487</v>
       </c>
       <c r="I3">
-        <v>0.4682109449152916</v>
+        <v>-1164.242156170674</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178407</v>
+        <v>0.1077319051882908</v>
       </c>
       <c r="K3">
-        <v>2.308438694642952</v>
+        <v>2.308438694637216</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132417</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642834</v>
+        <v>2.308438694643078</v>
       </c>
       <c r="N3">
-        <v>0.9258960224143445</v>
+        <v>1.103200056240783</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.036762639746416</v>
+        <v>1.103450537490505</v>
       </c>
       <c r="Q3">
-        <v>29.15652802099638</v>
+        <v>29.88904128065449</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.2519843803282</v>
+        <v>150.0883382818549</v>
       </c>
       <c r="T3">
-        <v>1.512249406985107</v>
+        <v>0.03328463089789862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9258960224210204</v>
+        <v>1.103200056240542</v>
       </c>
       <c r="O4">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.036762639740436</v>
+        <v>1.10345053749044</v>
       </c>
       <c r="Q4">
-        <v>29.15652802156343</v>
+        <v>29.88904128065114</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.2519843808606</v>
+        <v>150.0883382818424</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9258960224232455</v>
+        <v>1.103200056240462</v>
       </c>
       <c r="O5">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.036762639738443</v>
+        <v>1.103450537490418</v>
       </c>
       <c r="Q5">
-        <v>29.15652802175244</v>
+        <v>29.88904128065003</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.251984381038</v>
+        <v>150.0883382818382</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9258960224232455</v>
+        <v>1.103200056240462</v>
       </c>
       <c r="O6">
-        <v>1.100000023845418</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.036762639738443</v>
+        <v>1.103450537490418</v>
       </c>
       <c r="Q6">
-        <v>29.15652802175244</v>
+        <v>29.88904128065002</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.251984381038</v>
+        <v>150.0883382818382</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8683710752553727</v>
+        <v>1.000601962426766</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996367</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.8577588206221997</v>
+        <v>1.000684047392946</v>
       </c>
       <c r="Q2">
-        <v>35.89757851088345</v>
+        <v>29.97467153374735</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.0936661731677</v>
+        <v>150.017180675646</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.513797425715725</v>
+        <v>0.02987702837349566</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>75.21485394367332</v>
+        <v>0.3449902074804761</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.036819750963472E-06</v>
+        <v>11.96879477029048</v>
       </c>
       <c r="I3">
-        <v>0.4802968843715524</v>
+        <v>-1164.221813061255</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127206</v>
+        <v>0.1153518593830505</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540670323</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711474</v>
+        <v>0.1153518594868341</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.416397540675119</v>
       </c>
       <c r="N3">
-        <v>0.5094213408520352</v>
+        <v>1.003021203548366</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999649</v>
       </c>
       <c r="P3">
-        <v>0.5027173465907385</v>
+        <v>1.003230838064653</v>
       </c>
       <c r="Q3">
-        <v>81.17654846430182</v>
+        <v>29.88655443386957</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>98.94207501580983</v>
+        <v>150.0926200384874</v>
       </c>
       <c r="T3">
-        <v>6.513797425715726</v>
+        <v>0.02987702837349566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5094213408996348</v>
+        <v>1.00302120354802</v>
       </c>
       <c r="O4">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P4">
-        <v>0.5027173465632437</v>
+        <v>1.003230838064466</v>
       </c>
       <c r="Q4">
-        <v>81.17654845772761</v>
+        <v>29.88655443387048</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>98.94207502380932</v>
+        <v>150.0926200384708</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5094213409155015</v>
+        <v>1.003021203547905</v>
       </c>
       <c r="O5">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P5">
-        <v>0.5027173465540786</v>
+        <v>1.003230838064403</v>
       </c>
       <c r="Q5">
-        <v>81.17654845553619</v>
+        <v>29.88655443387077</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>98.94207502647583</v>
+        <v>150.0926200384653</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5094213409155015</v>
+        <v>1.003021203547905</v>
       </c>
       <c r="O6">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P6">
-        <v>0.5027173465540787</v>
+        <v>1.003230838064403</v>
       </c>
       <c r="Q6">
-        <v>81.17654845553619</v>
+        <v>29.88655443387077</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>98.94207502647582</v>
+        <v>150.0926200384652</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8683710752553727</v>
+        <v>1.000601962426766</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996367</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.8577588206221997</v>
+        <v>1.000684047392946</v>
       </c>
       <c r="Q2">
-        <v>35.89757851088345</v>
+        <v>29.97467153374735</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.0936661731677</v>
+        <v>150.017180675646</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.513797425715725</v>
+        <v>0.02987702837349566</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>75.21485394367332</v>
+        <v>0.3449902074804761</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.036819750963472E-06</v>
+        <v>11.96879477029048</v>
       </c>
       <c r="I3">
-        <v>0.4802968843715524</v>
+        <v>-1164.221813061255</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127206</v>
+        <v>0.1153518593830505</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540670323</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711474</v>
+        <v>0.1153518594868341</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.416397540675119</v>
       </c>
       <c r="N3">
-        <v>0.5094213408520352</v>
+        <v>1.003021203548366</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999649</v>
       </c>
       <c r="P3">
-        <v>0.5027173465907385</v>
+        <v>1.003230838064653</v>
       </c>
       <c r="Q3">
-        <v>81.17654846430182</v>
+        <v>29.88655443386957</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>98.94207501580983</v>
+        <v>150.0926200384874</v>
       </c>
       <c r="T3">
-        <v>6.513797425715726</v>
+        <v>0.02987702837349566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5094213408996348</v>
+        <v>1.00302120354802</v>
       </c>
       <c r="O4">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P4">
-        <v>0.5027173465632437</v>
+        <v>1.003230838064466</v>
       </c>
       <c r="Q4">
-        <v>81.17654845772761</v>
+        <v>29.88655443387048</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>98.94207502380932</v>
+        <v>150.0926200384708</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5094213409155015</v>
+        <v>1.003021203547905</v>
       </c>
       <c r="O5">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P5">
-        <v>0.5027173465540786</v>
+        <v>1.003230838064403</v>
       </c>
       <c r="Q5">
-        <v>81.17654845553619</v>
+        <v>29.88655443387077</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>98.94207502647583</v>
+        <v>150.0926200384653</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5094213409155015</v>
+        <v>1.003021203547905</v>
       </c>
       <c r="O6">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999647</v>
       </c>
       <c r="P6">
-        <v>0.5027173465540787</v>
+        <v>1.003230838064403</v>
       </c>
       <c r="Q6">
-        <v>81.17654845553619</v>
+        <v>29.88655443387077</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>98.94207502647582</v>
+        <v>150.0926200384652</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9658967390676451</v>
+        <v>1.000603733364247</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985031</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>0.9839957837146769</v>
+        <v>1.00069681757081</v>
       </c>
       <c r="Q2">
-        <v>29.95932444143167</v>
+        <v>29.97388545825383</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.2600437645263</v>
+        <v>150.0168749392567</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364415942325942</v>
+        <v>0.03026176879664626</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.75491823176999</v>
+        <v>0.3494328072179587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.036819750963472E-06</v>
+        <v>11.96879477029048</v>
       </c>
       <c r="I3">
-        <v>0.4802968843715524</v>
+        <v>-1164.221813061255</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127206</v>
+        <v>0.1153518593830505</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540670323</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711474</v>
+        <v>0.1153518594868341</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.416397540675119</v>
       </c>
       <c r="N3">
-        <v>0.8354766787369454</v>
+        <v>1.003033313450233</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9397941885369565</v>
+        <v>1.003293852991856</v>
       </c>
       <c r="Q3">
-        <v>29.18497329957069</v>
+        <v>29.88279198202625</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>140.9086050006529</v>
+        <v>150.0913251590162</v>
       </c>
       <c r="T3">
-        <v>1.364415942325941</v>
+        <v>0.03026176879664625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8354766787497961</v>
+        <v>1.003033313449883</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P4">
-        <v>0.9397941885331897</v>
+        <v>1.003293852991663</v>
       </c>
       <c r="Q4">
-        <v>29.18497330019989</v>
+        <v>29.88279198202742</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>140.9086050015878</v>
+        <v>150.0913251589995</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8354766787540797</v>
+        <v>1.003033313449766</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.9397941885319341</v>
+        <v>1.003293852991598</v>
       </c>
       <c r="Q5">
-        <v>29.18497330040963</v>
+        <v>29.8827919820278</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>140.9086050018994</v>
+        <v>150.091325158994</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8354766787540797</v>
+        <v>1.003033313449766</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P6">
-        <v>0.9397941885319341</v>
+        <v>1.003293852991598</v>
       </c>
       <c r="Q6">
-        <v>29.18497330040962</v>
+        <v>29.88279198202781</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>140.9086050018994</v>
+        <v>150.091325158994</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9658967390676451</v>
+        <v>1.000603733364247</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985031</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>0.9839957837146769</v>
+        <v>1.00069681757081</v>
       </c>
       <c r="Q2">
-        <v>29.95932444143167</v>
+        <v>29.97388545825383</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.2600437645263</v>
+        <v>150.0168749392567</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364415942325942</v>
+        <v>0.03026176879664626</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.75491823176999</v>
+        <v>0.3494328072179587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.036819750963472E-06</v>
+        <v>11.96879477029048</v>
       </c>
       <c r="I3">
-        <v>0.4802968843715524</v>
+        <v>-1164.221813061255</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127206</v>
+        <v>0.1153518593830505</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540670323</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711474</v>
+        <v>0.1153518594868341</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.416397540675119</v>
       </c>
       <c r="N3">
-        <v>0.8354766787369454</v>
+        <v>1.003033313450233</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9397941885369565</v>
+        <v>1.003293852991856</v>
       </c>
       <c r="Q3">
-        <v>29.18497329957069</v>
+        <v>29.88279198202625</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>140.9086050006529</v>
+        <v>150.0913251590162</v>
       </c>
       <c r="T3">
-        <v>1.364415942325941</v>
+        <v>0.03026176879664625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8354766787497961</v>
+        <v>1.003033313449883</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P4">
-        <v>0.9397941885331897</v>
+        <v>1.003293852991663</v>
       </c>
       <c r="Q4">
-        <v>29.18497330019989</v>
+        <v>29.88279198202742</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>140.9086050015878</v>
+        <v>150.0913251589995</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8354766787540797</v>
+        <v>1.003033313449766</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.9397941885319341</v>
+        <v>1.003293852991598</v>
       </c>
       <c r="Q5">
-        <v>29.18497330040963</v>
+        <v>29.8827919820278</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>140.9086050018994</v>
+        <v>150.091325158994</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8354766787540797</v>
+        <v>1.003033313449766</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P6">
-        <v>0.9397941885319341</v>
+        <v>1.003293852991598</v>
       </c>
       <c r="Q6">
-        <v>29.18497330040962</v>
+        <v>29.88279198202781</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>140.9086050018994</v>
+        <v>150.091325158994</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9357704467108825</v>
+        <v>1.046749184626597</v>
       </c>
       <c r="O2">
-        <v>0.8909260930571506</v>
+        <v>0.8909260930523794</v>
       </c>
       <c r="P2">
-        <v>0.9373779772461146</v>
+        <v>1.056822484305462</v>
       </c>
       <c r="Q2">
-        <v>29.02341297002469</v>
+        <v>25.18339146156607</v>
       </c>
       <c r="R2">
-        <v>-89.28600430295452</v>
+        <v>-89.28600430314845</v>
       </c>
       <c r="S2">
-        <v>152.2227012879446</v>
+        <v>155.070873448654</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.506250168580479</v>
+        <v>4.760377943955787</v>
       </c>
       <c r="D3">
-        <v>7.605660242490067</v>
+        <v>4.759525859511251</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>86.67471110869228</v>
+        <v>54.96810974774462</v>
       </c>
       <c r="G3">
-        <v>87.82259976732951</v>
+        <v>54.95827072407611</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>0.274763857318339</v>
+        <v>0.9535730640821133</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2747638573347982</v>
+        <v>0.9535730640826167</v>
       </c>
       <c r="Q3">
-        <v>1.901478329142277</v>
+        <v>-0.002957894750971819</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0985216720061</v>
+        <v>179.997042105248</v>
       </c>
       <c r="T3">
-        <v>11.73675499494554</v>
+        <v>0.01638077421985483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2747638573229618</v>
+        <v>0.9535730640552976</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2747638573913684</v>
+        <v>0.9535730641093461</v>
       </c>
       <c r="Q4">
-        <v>1.90147834083729</v>
+        <v>-0.002957893335984014</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0985216705166</v>
+        <v>179.9970421038277</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2747638573245026</v>
+        <v>0.9535730640463593</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.274763857410225</v>
+        <v>0.9535730641182558</v>
       </c>
       <c r="Q5">
-        <v>1.901478344735611</v>
+        <v>-0.002957892864331735</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0985216700201</v>
+        <v>179.9970421033543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2747638573245028</v>
+        <v>0.9535730640463593</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2747638574102249</v>
+        <v>0.9535730641182559</v>
       </c>
       <c r="Q6">
-        <v>1.901478344735619</v>
+        <v>-0.002957892864330126</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.09852167002</v>
+        <v>179.9970421033543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9357704467108825</v>
+        <v>1.046749184626597</v>
       </c>
       <c r="O2">
-        <v>0.8909260930571506</v>
+        <v>0.8909260930523794</v>
       </c>
       <c r="P2">
-        <v>0.9373779772461146</v>
+        <v>1.056822484305462</v>
       </c>
       <c r="Q2">
-        <v>29.02341297002469</v>
+        <v>25.18339146156607</v>
       </c>
       <c r="R2">
-        <v>-89.28600430295452</v>
+        <v>-89.28600430314845</v>
       </c>
       <c r="S2">
-        <v>152.2227012879446</v>
+        <v>155.070873448654</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.506250168580479</v>
+        <v>4.760377943955787</v>
       </c>
       <c r="D3">
-        <v>7.605660242490067</v>
+        <v>4.759525859511251</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>86.67471110869228</v>
+        <v>54.96810974774462</v>
       </c>
       <c r="G3">
-        <v>87.82259976732951</v>
+        <v>54.95827072407611</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>0.274763857318339</v>
+        <v>0.9535730640821133</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2747638573347982</v>
+        <v>0.9535730640826167</v>
       </c>
       <c r="Q3">
-        <v>1.901478329142277</v>
+        <v>-0.002957894750971819</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0985216720061</v>
+        <v>179.997042105248</v>
       </c>
       <c r="T3">
-        <v>11.73675499494554</v>
+        <v>0.01638077421985483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2747638573229618</v>
+        <v>0.9535730640552976</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2747638573913684</v>
+        <v>0.9535730641093461</v>
       </c>
       <c r="Q4">
-        <v>1.90147834083729</v>
+        <v>-0.002957893335984014</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0985216705166</v>
+        <v>179.9970421038277</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2747638573245026</v>
+        <v>0.9535730640463593</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.274763857410225</v>
+        <v>0.9535730641182558</v>
       </c>
       <c r="Q5">
-        <v>1.901478344735611</v>
+        <v>-0.002957892864331735</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0985216700201</v>
+        <v>179.9970421033543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2747638573245028</v>
+        <v>0.9535730640463593</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2747638574102249</v>
+        <v>0.9535730641182559</v>
       </c>
       <c r="Q6">
-        <v>1.901478344735619</v>
+        <v>-0.002957892864330126</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.09852167002</v>
+        <v>179.9970421033543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08235692096744</v>
+        <v>1.100122685156379</v>
       </c>
       <c r="O2">
-        <v>1.052967690033993</v>
+        <v>1.052967690033154</v>
       </c>
       <c r="P2">
-        <v>1.068899331735592</v>
+        <v>1.076934273328873</v>
       </c>
       <c r="Q2">
-        <v>28.49924516952672</v>
+        <v>28.5808384397852</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237872</v>
+        <v>-91.44286082238192</v>
       </c>
       <c r="S2">
-        <v>149.8922065593637</v>
+        <v>150.7424294065822</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.526672818514249</v>
+        <v>1.238502100877114</v>
       </c>
       <c r="D3">
-        <v>1.416705815817619</v>
+        <v>1.228897654256648</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.62849925467373</v>
+        <v>14.30099042666638</v>
       </c>
       <c r="G3">
-        <v>16.35870968249622</v>
+        <v>14.19008782983151</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>1.024998465635609</v>
+        <v>1.115656514722972</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809899</v>
+        <v>0.8723446855796184</v>
       </c>
       <c r="P3">
-        <v>0.9376304985637802</v>
+        <v>0.9769484253822178</v>
       </c>
       <c r="Q3">
-        <v>21.37648613032176</v>
+        <v>22.63788574889048</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-100.051016339629</v>
       </c>
       <c r="S3">
-        <v>148.8262714365576</v>
+        <v>153.9172290183986</v>
       </c>
       <c r="T3">
-        <v>1.608629392690297</v>
+        <v>0.01648615626557852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.024998465630266</v>
+        <v>1.115656514715051</v>
       </c>
       <c r="O4">
-        <v>0.8723446855806875</v>
+        <v>0.8723446855793159</v>
       </c>
       <c r="P4">
-        <v>0.9376304985696391</v>
+        <v>0.9769484253910443</v>
       </c>
       <c r="Q4">
-        <v>21.37648613088751</v>
+        <v>22.63788574913921</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383881</v>
+        <v>-100.0510163384142</v>
       </c>
       <c r="S4">
-        <v>148.8262714370989</v>
+        <v>153.9172290185535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.024998465628484</v>
+        <v>1.11565651471241</v>
       </c>
       <c r="O5">
-        <v>0.8723446855805866</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P5">
-        <v>0.937630498571592</v>
+        <v>0.9769484253939862</v>
       </c>
       <c r="Q5">
-        <v>21.37648613107609</v>
+        <v>22.63788574922213</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380093</v>
       </c>
       <c r="S5">
-        <v>148.8262714372794</v>
+        <v>153.9172290186051</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.024998465628484</v>
+        <v>1.11565651471241</v>
       </c>
       <c r="O6">
-        <v>0.8723446855805866</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P6">
-        <v>0.937630498571592</v>
+        <v>0.9769484253939862</v>
       </c>
       <c r="Q6">
-        <v>21.37648613107609</v>
+        <v>22.63788574922213</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380093</v>
       </c>
       <c r="S6">
-        <v>148.8262714372794</v>
+        <v>153.9172290186051</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08235692096744</v>
+        <v>1.100122685156379</v>
       </c>
       <c r="O2">
-        <v>1.052967690033993</v>
+        <v>1.052967690033154</v>
       </c>
       <c r="P2">
-        <v>1.068899331735592</v>
+        <v>1.076934273328873</v>
       </c>
       <c r="Q2">
-        <v>28.49924516952672</v>
+        <v>28.5808384397852</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237872</v>
+        <v>-91.44286082238192</v>
       </c>
       <c r="S2">
-        <v>149.8922065593637</v>
+        <v>150.7424294065822</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.526672818514249</v>
+        <v>1.238502100877114</v>
       </c>
       <c r="D3">
-        <v>1.416705815817619</v>
+        <v>1.228897654256648</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.62849925467373</v>
+        <v>14.30099042666638</v>
       </c>
       <c r="G3">
-        <v>16.35870968249622</v>
+        <v>14.19008782983151</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>1.024998465635609</v>
+        <v>1.115656514722972</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809899</v>
+        <v>0.8723446855796184</v>
       </c>
       <c r="P3">
-        <v>0.9376304985637802</v>
+        <v>0.9769484253822178</v>
       </c>
       <c r="Q3">
-        <v>21.37648613032176</v>
+        <v>22.63788574889048</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-100.051016339629</v>
       </c>
       <c r="S3">
-        <v>148.8262714365576</v>
+        <v>153.9172290183986</v>
       </c>
       <c r="T3">
-        <v>1.608629392690297</v>
+        <v>0.01648615626557852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.024998465630266</v>
+        <v>1.115656514715051</v>
       </c>
       <c r="O4">
-        <v>0.8723446855806875</v>
+        <v>0.8723446855793159</v>
       </c>
       <c r="P4">
-        <v>0.9376304985696391</v>
+        <v>0.9769484253910443</v>
       </c>
       <c r="Q4">
-        <v>21.37648613088751</v>
+        <v>22.63788574913921</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383881</v>
+        <v>-100.0510163384142</v>
       </c>
       <c r="S4">
-        <v>148.8262714370989</v>
+        <v>153.9172290185535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.024998465628484</v>
+        <v>1.11565651471241</v>
       </c>
       <c r="O5">
-        <v>0.8723446855805866</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P5">
-        <v>0.937630498571592</v>
+        <v>0.9769484253939862</v>
       </c>
       <c r="Q5">
-        <v>21.37648613107609</v>
+        <v>22.63788574922213</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380093</v>
       </c>
       <c r="S5">
-        <v>148.8262714372794</v>
+        <v>153.9172290186051</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.024998465628484</v>
+        <v>1.11565651471241</v>
       </c>
       <c r="O6">
-        <v>0.8723446855805866</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P6">
-        <v>0.937630498571592</v>
+        <v>0.9769484253939862</v>
       </c>
       <c r="Q6">
-        <v>21.37648613107609</v>
+        <v>22.63788574922213</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380093</v>
       </c>
       <c r="S6">
-        <v>148.8262714372794</v>
+        <v>153.9172290186051</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8373457270631013</v>
+        <v>0.9478826819849716</v>
       </c>
       <c r="O2">
-        <v>0.793667423273714</v>
+        <v>0.793667423273943</v>
       </c>
       <c r="P2">
-        <v>0.838856333084905</v>
+        <v>0.957660390612571</v>
       </c>
       <c r="Q2">
-        <v>28.94015413720314</v>
+        <v>24.74578355956541</v>
       </c>
       <c r="R2">
-        <v>-89.2249262390622</v>
+        <v>-89.22492623897027</v>
       </c>
       <c r="S2">
-        <v>152.4178868330181</v>
+        <v>155.5208704457546</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.541305022623869</v>
+        <v>4.13412320426871</v>
       </c>
       <c r="D3">
-        <v>6.628536688114267</v>
+        <v>4.133259340354731</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.53248431326685</v>
+        <v>47.73674289695236</v>
       </c>
       <c r="G3">
-        <v>76.53974882432166</v>
+        <v>47.72676785568678</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.2461995304895309</v>
+        <v>0.866924537136686</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.246199530483257</v>
+        <v>0.8669245371368213</v>
       </c>
       <c r="Q3">
-        <v>1.956184665919931</v>
+        <v>-0.003452948028103186</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0438153355904</v>
+        <v>179.996547051904</v>
       </c>
       <c r="T3">
-        <v>10.25197283137392</v>
+        <v>0.01489198568333365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.246199530519065</v>
+        <v>0.8669245371122702</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2461995305586258</v>
+        <v>0.8669245371610849</v>
       </c>
       <c r="Q4">
-        <v>1.956184682140737</v>
+        <v>-0.003452945308915533</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0438153389137</v>
+        <v>179.9965470491796</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2461995305289095</v>
+        <v>0.8669245371041315</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2461995305837485</v>
+        <v>0.8669245371691729</v>
       </c>
       <c r="Q5">
-        <v>1.956184687547695</v>
+        <v>-0.003452944402523157</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0438153400215</v>
+        <v>179.9965470482715</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2461995305289095</v>
+        <v>0.8669245371041314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2461995305837485</v>
+        <v>0.8669245371691727</v>
       </c>
       <c r="Q6">
-        <v>1.95618468754769</v>
+        <v>-0.003452944402524945</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0438153400215</v>
+        <v>179.9965470482715</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8373457270631013</v>
+        <v>0.9478826819849716</v>
       </c>
       <c r="O2">
-        <v>0.793667423273714</v>
+        <v>0.793667423273943</v>
       </c>
       <c r="P2">
-        <v>0.838856333084905</v>
+        <v>0.957660390612571</v>
       </c>
       <c r="Q2">
-        <v>28.94015413720314</v>
+        <v>24.74578355956541</v>
       </c>
       <c r="R2">
-        <v>-89.2249262390622</v>
+        <v>-89.22492623897027</v>
       </c>
       <c r="S2">
-        <v>152.4178868330181</v>
+        <v>155.5208704457546</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.541305022623869</v>
+        <v>4.13412320426871</v>
       </c>
       <c r="D3">
-        <v>6.628536688114267</v>
+        <v>4.133259340354731</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.53248431326685</v>
+        <v>47.73674289695236</v>
       </c>
       <c r="G3">
-        <v>76.53974882432166</v>
+        <v>47.72676785568678</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.2461995304895309</v>
+        <v>0.866924537136686</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.246199530483257</v>
+        <v>0.8669245371368213</v>
       </c>
       <c r="Q3">
-        <v>1.956184665919931</v>
+        <v>-0.003452948028103186</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0438153355904</v>
+        <v>179.996547051904</v>
       </c>
       <c r="T3">
-        <v>10.25197283137392</v>
+        <v>0.01489198568333365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.246199530519065</v>
+        <v>0.8669245371122702</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2461995305586258</v>
+        <v>0.8669245371610849</v>
       </c>
       <c r="Q4">
-        <v>1.956184682140737</v>
+        <v>-0.003452945308915533</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0438153389137</v>
+        <v>179.9965470491796</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2461995305289095</v>
+        <v>0.8669245371041315</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2461995305837485</v>
+        <v>0.8669245371691729</v>
       </c>
       <c r="Q5">
-        <v>1.956184687547695</v>
+        <v>-0.003452944402523157</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0438153400215</v>
+        <v>179.9965470482715</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2461995305289095</v>
+        <v>0.8669245371041314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2461995305837485</v>
+        <v>0.8669245371691727</v>
       </c>
       <c r="Q6">
-        <v>1.95618468754769</v>
+        <v>-0.003452944402524945</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0438153400215</v>
+        <v>179.9965470482715</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9817268188597591</v>
+        <v>0.9999982242974985</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521029</v>
+        <v>0.9517844802529019</v>
       </c>
       <c r="P2">
-        <v>0.9681903188198042</v>
+        <v>0.9765219072876005</v>
       </c>
       <c r="Q2">
-        <v>28.31154403341033</v>
+        <v>28.40379617365657</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281389</v>
+        <v>-91.61401138281128</v>
       </c>
       <c r="S2">
-        <v>149.8829138570727</v>
+        <v>150.8457243618253</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.377770587477874</v>
+        <v>1.114323507641332</v>
       </c>
       <c r="D3">
-        <v>1.27492688305777</v>
+        <v>1.10560694387212</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.90912439123799</v>
+        <v>12.86709954202102</v>
       </c>
       <c r="G3">
-        <v>14.72158758260988</v>
+        <v>12.76644933324976</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.9282294485543674</v>
+        <v>1.014101366037554</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142144</v>
+        <v>0.7848521014138806</v>
       </c>
       <c r="P3">
-        <v>0.8469724620296831</v>
+        <v>0.8847201996661136</v>
       </c>
       <c r="Q3">
-        <v>21.0463501786775</v>
+        <v>22.36766935421996</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-100.4045966786922</v>
       </c>
       <c r="S3">
-        <v>148.8123721892598</v>
+        <v>154.1299069970214</v>
       </c>
       <c r="T3">
-        <v>1.455829017782315</v>
+        <v>0.01498730553138545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282294485516998</v>
+        <v>1.014101366029198</v>
       </c>
       <c r="O4">
-        <v>0.7848521014217906</v>
+        <v>0.7848521014214569</v>
       </c>
       <c r="P4">
-        <v>0.846972462041261</v>
+        <v>0.8847201996789008</v>
       </c>
       <c r="Q4">
-        <v>21.04635017964781</v>
+        <v>22.3676693547749</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769033</v>
+        <v>-100.4045966769002</v>
       </c>
       <c r="S4">
-        <v>148.8123721898784</v>
+        <v>154.1299069969925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282294485508106</v>
+        <v>1.014101366026412</v>
       </c>
       <c r="O5">
-        <v>0.7848521014243159</v>
+        <v>0.7848521014239824</v>
       </c>
       <c r="P5">
-        <v>0.8469724620451204</v>
+        <v>0.8847201996831628</v>
       </c>
       <c r="Q5">
-        <v>21.04635017997124</v>
+        <v>22.36766935495989</v>
       </c>
       <c r="R5">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763029</v>
       </c>
       <c r="S5">
-        <v>148.8123721900847</v>
+        <v>154.1299069969828</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282294485508106</v>
+        <v>1.014101366026412</v>
       </c>
       <c r="O6">
-        <v>0.7848521014243159</v>
+        <v>0.7848521014239823</v>
       </c>
       <c r="P6">
-        <v>0.8469724620451204</v>
+        <v>0.884720199683163</v>
       </c>
       <c r="Q6">
-        <v>21.04635017997124</v>
+        <v>22.36766935495989</v>
       </c>
       <c r="R6">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763029</v>
       </c>
       <c r="S6">
-        <v>148.8123721900847</v>
+        <v>154.1299069969828</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9817268188597591</v>
+        <v>0.9999982242974985</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521029</v>
+        <v>0.9517844802529019</v>
       </c>
       <c r="P2">
-        <v>0.9681903188198042</v>
+        <v>0.9765219072876005</v>
       </c>
       <c r="Q2">
-        <v>28.31154403341033</v>
+        <v>28.40379617365657</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281389</v>
+        <v>-91.61401138281128</v>
       </c>
       <c r="S2">
-        <v>149.8829138570727</v>
+        <v>150.8457243618253</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.377770587477874</v>
+        <v>1.114323507641332</v>
       </c>
       <c r="D3">
-        <v>1.27492688305777</v>
+        <v>1.10560694387212</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.90912439123799</v>
+        <v>12.86709954202102</v>
       </c>
       <c r="G3">
-        <v>14.72158758260988</v>
+        <v>12.76644933324976</v>
       </c>
       <c r="H3">
-        <v>2.036819745490962E-06</v>
+        <v>11.96879477029091</v>
       </c>
       <c r="I3">
-        <v>0.4802968843717542</v>
+        <v>-1164.221813061253</v>
       </c>
       <c r="J3">
-        <v>0.115351859484111</v>
+        <v>0.1153518595441699</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540813449</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710794</v>
+        <v>0.1153518594637767</v>
       </c>
       <c r="M3">
-        <v>2.416397540675751</v>
+        <v>2.416397540689557</v>
       </c>
       <c r="N3">
-        <v>0.9282294485543674</v>
+        <v>1.014101366037554</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142144</v>
+        <v>0.7848521014138806</v>
       </c>
       <c r="P3">
-        <v>0.8469724620296831</v>
+        <v>0.8847201996661136</v>
       </c>
       <c r="Q3">
-        <v>21.0463501786775</v>
+        <v>22.36766935421996</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-100.4045966786922</v>
       </c>
       <c r="S3">
-        <v>148.8123721892598</v>
+        <v>154.1299069970214</v>
       </c>
       <c r="T3">
-        <v>1.455829017782315</v>
+        <v>0.01498730553138545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282294485516998</v>
+        <v>1.014101366029198</v>
       </c>
       <c r="O4">
-        <v>0.7848521014217906</v>
+        <v>0.7848521014214569</v>
       </c>
       <c r="P4">
-        <v>0.846972462041261</v>
+        <v>0.8847201996789008</v>
       </c>
       <c r="Q4">
-        <v>21.04635017964781</v>
+        <v>22.3676693547749</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769033</v>
+        <v>-100.4045966769002</v>
       </c>
       <c r="S4">
-        <v>148.8123721898784</v>
+        <v>154.1299069969925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282294485508106</v>
+        <v>1.014101366026412</v>
       </c>
       <c r="O5">
-        <v>0.7848521014243159</v>
+        <v>0.7848521014239824</v>
       </c>
       <c r="P5">
-        <v>0.8469724620451204</v>
+        <v>0.8847201996831628</v>
       </c>
       <c r="Q5">
-        <v>21.04635017997124</v>
+        <v>22.36766935495989</v>
       </c>
       <c r="R5">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763029</v>
       </c>
       <c r="S5">
-        <v>148.8123721900847</v>
+        <v>154.1299069969828</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282294485508106</v>
+        <v>1.014101366026412</v>
       </c>
       <c r="O6">
-        <v>0.7848521014243159</v>
+        <v>0.7848521014239823</v>
       </c>
       <c r="P6">
-        <v>0.8469724620451204</v>
+        <v>0.884720199683163</v>
       </c>
       <c r="Q6">
-        <v>21.04635017997124</v>
+        <v>22.36766935495989</v>
       </c>
       <c r="R6">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763029</v>
       </c>
       <c r="S6">
-        <v>148.8123721900847</v>
+        <v>154.1299069969828</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523872</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165217</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033993</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314907</v>
+        <v>-89.28600430314903</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882992</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248761</v>
       </c>
       <c r="D3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248761</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950738</v>
+        <v>54.96310908950603</v>
       </c>
       <c r="G3">
-        <v>54.96310908950738</v>
+        <v>54.96310908950603</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>6.233869347590352</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>-1164.242156170675</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054662037</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694746293</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131821</v>
+        <v>0.107731905404895</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694656978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020826</v>
+        <v>0.9526279648020792</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025198</v>
+        <v>0.9526279648025215</v>
       </c>
       <c r="Q3">
-        <v>-4.069505093828522E-12</v>
+        <v>-3.254024260705804E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99999999999</v>
+        <v>-179.9999999999907</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753113</v>
+        <v>0.952627964775308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292909</v>
+        <v>0.9526279648292928</v>
       </c>
       <c r="Q4">
-        <v>1.415044165032323E-09</v>
+        <v>1.415858268396637E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985763</v>
+        <v>179.9999999985755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663876</v>
+        <v>0.9526279647663842</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382148</v>
+        <v>0.9526279648382164</v>
       </c>
       <c r="Q5">
-        <v>1.88807568571382E-09</v>
+        <v>1.888890692837082E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981025</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663877</v>
+        <v>0.9526279647663842</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382148</v>
+        <v>0.9526279648382164</v>
       </c>
       <c r="Q6">
-        <v>1.888076414224206E-09</v>
+        <v>1.888889882159644E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981025</v>
       </c>
     </row>
   </sheetData>
